--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.138252333333333</v>
+        <v>1.648519666666667</v>
       </c>
       <c r="H2">
-        <v>3.414757</v>
+        <v>4.945559</v>
       </c>
       <c r="I2">
-        <v>0.004456632015781551</v>
+        <v>0.006408327459405589</v>
       </c>
       <c r="J2">
-        <v>0.004456632015781551</v>
+        <v>0.00640832745940559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.473323333333334</v>
+        <v>7.744474333333333</v>
       </c>
       <c r="N2">
-        <v>7.41997</v>
+        <v>23.233423</v>
       </c>
       <c r="O2">
-        <v>0.5382827202858395</v>
+        <v>0.7791665333592772</v>
       </c>
       <c r="P2">
-        <v>0.5382827202858395</v>
+        <v>0.7791665333592771</v>
       </c>
       <c r="Q2">
-        <v>2.815266055254444</v>
+        <v>12.76691824649522</v>
       </c>
       <c r="R2">
-        <v>25.33739449729</v>
+        <v>114.902264218457</v>
       </c>
       <c r="S2">
-        <v>0.002398928004767857</v>
+        <v>0.004993154291176118</v>
       </c>
       <c r="T2">
-        <v>0.002398928004767857</v>
+        <v>0.004993154291176118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.138252333333333</v>
+        <v>1.648519666666667</v>
       </c>
       <c r="H3">
-        <v>3.414757</v>
+        <v>4.945559</v>
       </c>
       <c r="I3">
-        <v>0.004456632015781551</v>
+        <v>0.006408327459405589</v>
       </c>
       <c r="J3">
-        <v>0.004456632015781551</v>
+        <v>0.00640832745940559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.653406</v>
       </c>
       <c r="O3">
-        <v>0.3375819633063809</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="P3">
-        <v>0.3375819633063809</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="Q3">
-        <v>1.765583412482445</v>
+        <v>2.557077102661556</v>
       </c>
       <c r="R3">
-        <v>15.890250712342</v>
+        <v>23.013693923954</v>
       </c>
       <c r="S3">
-        <v>0.00150447858562161</v>
+        <v>0.001000075371480332</v>
       </c>
       <c r="T3">
-        <v>0.00150447858562161</v>
+        <v>0.001000075371480332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.138252333333333</v>
+        <v>1.648519666666667</v>
       </c>
       <c r="H4">
-        <v>3.414757</v>
+        <v>4.945559</v>
       </c>
       <c r="I4">
-        <v>0.004456632015781551</v>
+        <v>0.006408327459405589</v>
       </c>
       <c r="J4">
-        <v>0.004456632015781551</v>
+        <v>0.00640832745940559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5505563333333333</v>
+        <v>0.6438243333333333</v>
       </c>
       <c r="N4">
-        <v>1.651669</v>
+        <v>1.931473</v>
       </c>
       <c r="O4">
-        <v>0.1198205494539455</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="P4">
-        <v>0.1198205494539455</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="Q4">
-        <v>0.626672031048111</v>
+        <v>1.061357075378556</v>
       </c>
       <c r="R4">
-        <v>5.640048279433</v>
+        <v>9.552213678407</v>
       </c>
       <c r="S4">
-        <v>0.0005339960968449902</v>
+        <v>0.0004150977967491406</v>
       </c>
       <c r="T4">
-        <v>0.0005339960968449903</v>
+        <v>0.0004150977967491406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.138252333333333</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H5">
-        <v>3.414757</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I5">
-        <v>0.004456632015781551</v>
+        <v>0.9529114446585495</v>
       </c>
       <c r="J5">
-        <v>0.004456632015781551</v>
+        <v>0.9529114446585496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01982566666666667</v>
+        <v>7.744474333333333</v>
       </c>
       <c r="N5">
-        <v>0.059477</v>
+        <v>23.233423</v>
       </c>
       <c r="O5">
-        <v>0.004314766953834162</v>
+        <v>0.7791665333592772</v>
       </c>
       <c r="P5">
-        <v>0.004314766953834163</v>
+        <v>0.7791665333592771</v>
       </c>
       <c r="Q5">
-        <v>0.02256661134322222</v>
+        <v>1898.427099297108</v>
       </c>
       <c r="R5">
-        <v>0.203099502089</v>
+        <v>17085.84389367397</v>
       </c>
       <c r="S5">
-        <v>1.922932854709357E-05</v>
+        <v>0.7424767069329827</v>
       </c>
       <c r="T5">
-        <v>1.922932854709357E-05</v>
+        <v>0.7424767069329827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>245.1331126666667</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H6">
-        <v>735.3993380000001</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I6">
-        <v>0.9597767085960608</v>
+        <v>0.9529114446585495</v>
       </c>
       <c r="J6">
-        <v>0.9597767085960607</v>
+        <v>0.9529114446585496</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.473323333333334</v>
+        <v>1.551135333333334</v>
       </c>
       <c r="N6">
-        <v>7.41997</v>
+        <v>4.653406</v>
       </c>
       <c r="O6">
-        <v>0.5382827202858395</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="P6">
-        <v>0.5382827202858395</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="Q6">
-        <v>606.2934473310956</v>
+        <v>380.2346324272476</v>
       </c>
       <c r="R6">
-        <v>5456.64102597986</v>
+        <v>3422.111691845228</v>
       </c>
       <c r="S6">
-        <v>0.516631217570077</v>
+        <v>0.1487101389623985</v>
       </c>
       <c r="T6">
-        <v>0.516631217570077</v>
+        <v>0.1487101389623984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>245.1331126666667</v>
+        <v>245.1331126666666</v>
       </c>
       <c r="H7">
-        <v>735.3993380000001</v>
+        <v>735.3993379999999</v>
       </c>
       <c r="I7">
-        <v>0.9597767085960608</v>
+        <v>0.9529114446585495</v>
       </c>
       <c r="J7">
-        <v>0.9597767085960607</v>
+        <v>0.9529114446585496</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.551135333333334</v>
+        <v>0.6438243333333333</v>
       </c>
       <c r="N7">
-        <v>4.653406</v>
+        <v>1.931473</v>
       </c>
       <c r="O7">
-        <v>0.3375819633063809</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="P7">
-        <v>0.3375819633063809</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="Q7">
-        <v>380.2346324272476</v>
+        <v>157.8226628405415</v>
       </c>
       <c r="R7">
-        <v>3422.111691845229</v>
+        <v>1420.403965564874</v>
       </c>
       <c r="S7">
-        <v>0.3240033056235944</v>
+        <v>0.06172459876316843</v>
       </c>
       <c r="T7">
-        <v>0.3240033056235944</v>
+        <v>0.06172459876316844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>245.1331126666667</v>
+        <v>10.053517</v>
       </c>
       <c r="H8">
-        <v>735.3993380000001</v>
+        <v>30.160551</v>
       </c>
       <c r="I8">
-        <v>0.9597767085960608</v>
+        <v>0.0390812620300562</v>
       </c>
       <c r="J8">
-        <v>0.9597767085960607</v>
+        <v>0.03908126203005621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5505563333333333</v>
+        <v>7.744474333333333</v>
       </c>
       <c r="N8">
-        <v>1.651669</v>
+        <v>23.233423</v>
       </c>
       <c r="O8">
-        <v>0.1198205494539455</v>
+        <v>0.7791665333592772</v>
       </c>
       <c r="P8">
-        <v>0.1198205494539455</v>
+        <v>0.7791665333592771</v>
       </c>
       <c r="Q8">
-        <v>134.9595876883469</v>
+        <v>77.85920436623033</v>
       </c>
       <c r="R8">
-        <v>1214.636289195122</v>
+        <v>700.7328392960729</v>
       </c>
       <c r="S8">
-        <v>0.1150009725770793</v>
+        <v>0.03045081145526444</v>
       </c>
       <c r="T8">
-        <v>0.1150009725770794</v>
+        <v>0.03045081145526444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>245.1331126666667</v>
+        <v>10.053517</v>
       </c>
       <c r="H9">
-        <v>735.3993380000001</v>
+        <v>30.160551</v>
       </c>
       <c r="I9">
-        <v>0.9597767085960608</v>
+        <v>0.0390812620300562</v>
       </c>
       <c r="J9">
-        <v>0.9597767085960607</v>
+        <v>0.03908126203005621</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01982566666666667</v>
+        <v>1.551135333333334</v>
       </c>
       <c r="N9">
-        <v>0.059477</v>
+        <v>4.653406</v>
       </c>
       <c r="O9">
-        <v>0.004314766953834162</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="P9">
-        <v>0.004314766953834163</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="Q9">
-        <v>4.859927380691778</v>
+        <v>15.59436544296734</v>
       </c>
       <c r="R9">
-        <v>43.739346426226</v>
+        <v>140.349288986706</v>
       </c>
       <c r="S9">
-        <v>0.004141212825310004</v>
+        <v>0.006098971672439154</v>
       </c>
       <c r="T9">
-        <v>0.004141212825310004</v>
+        <v>0.006098971672439154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.138233333333333</v>
+        <v>10.053517</v>
       </c>
       <c r="H10">
-        <v>21.4147</v>
+        <v>30.160551</v>
       </c>
       <c r="I10">
-        <v>0.02794852975727326</v>
+        <v>0.0390812620300562</v>
       </c>
       <c r="J10">
-        <v>0.02794852975727326</v>
+        <v>0.03908126203005621</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.473323333333334</v>
+        <v>0.6438243333333333</v>
       </c>
       <c r="N10">
-        <v>7.41997</v>
+        <v>1.931473</v>
       </c>
       <c r="O10">
-        <v>0.5382827202858395</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="P10">
-        <v>0.5382827202858395</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="Q10">
-        <v>17.65515906211111</v>
+        <v>6.472698880180334</v>
       </c>
       <c r="R10">
-        <v>158.896431559</v>
+        <v>58.25428992162301</v>
       </c>
       <c r="S10">
-        <v>0.01504421062573479</v>
+        <v>0.002531478902352613</v>
       </c>
       <c r="T10">
-        <v>0.01504421062573479</v>
+        <v>0.002531478902352614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.138233333333333</v>
+        <v>0.4113283333333333</v>
       </c>
       <c r="H11">
-        <v>21.4147</v>
+        <v>1.233985</v>
       </c>
       <c r="I11">
-        <v>0.02794852975727326</v>
+        <v>0.001598965851988543</v>
       </c>
       <c r="J11">
-        <v>0.02794852975727326</v>
+        <v>0.001598965851988543</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.551135333333334</v>
+        <v>7.744474333333333</v>
       </c>
       <c r="N11">
-        <v>4.653406</v>
+        <v>23.233423</v>
       </c>
       <c r="O11">
-        <v>0.3375819633063809</v>
+        <v>0.7791665333592772</v>
       </c>
       <c r="P11">
-        <v>0.3375819633063809</v>
+        <v>0.7791665333592771</v>
       </c>
       <c r="Q11">
-        <v>11.07236594091111</v>
+        <v>3.185521720072777</v>
       </c>
       <c r="R11">
-        <v>99.65129346820001</v>
+        <v>28.66969548065499</v>
       </c>
       <c r="S11">
-        <v>0.009434919546987119</v>
+        <v>0.001245860679853776</v>
       </c>
       <c r="T11">
-        <v>0.009434919546987119</v>
+        <v>0.001245860679853776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.138233333333333</v>
+        <v>0.4113283333333333</v>
       </c>
       <c r="H12">
-        <v>21.4147</v>
+        <v>1.233985</v>
       </c>
       <c r="I12">
-        <v>0.02794852975727326</v>
+        <v>0.001598965851988543</v>
       </c>
       <c r="J12">
-        <v>0.02794852975727326</v>
+        <v>0.001598965851988543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5505563333333333</v>
+        <v>1.551135333333334</v>
       </c>
       <c r="N12">
-        <v>1.651669</v>
+        <v>4.653406</v>
       </c>
       <c r="O12">
-        <v>0.1198205494539455</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="P12">
-        <v>0.1198205494539455</v>
+        <v>0.1560587185682136</v>
       </c>
       <c r="Q12">
-        <v>3.929999570477777</v>
+        <v>0.6380259114344444</v>
       </c>
       <c r="R12">
-        <v>35.3699961343</v>
+        <v>5.74223320291</v>
       </c>
       <c r="S12">
-        <v>0.003348808191946429</v>
+        <v>0.0002495325618956639</v>
       </c>
       <c r="T12">
-        <v>0.00334880819194643</v>
+        <v>0.0002495325618956639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.138233333333333</v>
+        <v>0.4113283333333333</v>
       </c>
       <c r="H13">
-        <v>21.4147</v>
+        <v>1.233985</v>
       </c>
       <c r="I13">
-        <v>0.02794852975727326</v>
+        <v>0.001598965851988543</v>
       </c>
       <c r="J13">
-        <v>0.02794852975727326</v>
+        <v>0.001598965851988543</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01982566666666667</v>
+        <v>0.6438243333333333</v>
       </c>
       <c r="N13">
-        <v>0.059477</v>
+        <v>1.931473</v>
       </c>
       <c r="O13">
-        <v>0.004314766953834162</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="P13">
-        <v>0.004314766953834163</v>
+        <v>0.0647747480725093</v>
       </c>
       <c r="Q13">
-        <v>0.1415202346555555</v>
+        <v>0.2648231899894444</v>
       </c>
       <c r="R13">
-        <v>1.2736821119</v>
+        <v>2.383408709905</v>
       </c>
       <c r="S13">
-        <v>0.0001205913926049334</v>
+        <v>0.000103572610239103</v>
       </c>
       <c r="T13">
-        <v>0.0001205913926049334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.996800333333334</v>
-      </c>
-      <c r="H14">
-        <v>5.990401</v>
-      </c>
-      <c r="I14">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="J14">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.473323333333334</v>
-      </c>
-      <c r="N14">
-        <v>7.41997</v>
-      </c>
-      <c r="O14">
-        <v>0.5382827202858395</v>
-      </c>
-      <c r="P14">
-        <v>0.5382827202858395</v>
-      </c>
-      <c r="Q14">
-        <v>4.938732856441112</v>
-      </c>
-      <c r="R14">
-        <v>44.44859570797</v>
-      </c>
-      <c r="S14">
-        <v>0.004208364085259765</v>
-      </c>
-      <c r="T14">
-        <v>0.004208364085259765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.996800333333334</v>
-      </c>
-      <c r="H15">
-        <v>5.990401</v>
-      </c>
-      <c r="I15">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="J15">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.551135333333334</v>
-      </c>
-      <c r="N15">
-        <v>4.653406</v>
-      </c>
-      <c r="O15">
-        <v>0.3375819633063809</v>
-      </c>
-      <c r="P15">
-        <v>0.3375819633063809</v>
-      </c>
-      <c r="Q15">
-        <v>3.097307550645112</v>
-      </c>
-      <c r="R15">
-        <v>27.875767955806</v>
-      </c>
-      <c r="S15">
-        <v>0.002639259550177737</v>
-      </c>
-      <c r="T15">
-        <v>0.002639259550177737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.996800333333334</v>
-      </c>
-      <c r="H16">
-        <v>5.990401</v>
-      </c>
-      <c r="I16">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="J16">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5505563333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.651669</v>
-      </c>
-      <c r="O16">
-        <v>0.1198205494539455</v>
-      </c>
-      <c r="P16">
-        <v>0.1198205494539455</v>
-      </c>
-      <c r="Q16">
-        <v>1.099351069918778</v>
-      </c>
-      <c r="R16">
-        <v>9.894159629269001</v>
-      </c>
-      <c r="S16">
-        <v>0.0009367725880747374</v>
-      </c>
-      <c r="T16">
-        <v>0.0009367725880747377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.996800333333334</v>
-      </c>
-      <c r="H17">
-        <v>5.990401</v>
-      </c>
-      <c r="I17">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="J17">
-        <v>0.007818129630884371</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01982566666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.059477</v>
-      </c>
-      <c r="O17">
-        <v>0.004314766953834162</v>
-      </c>
-      <c r="P17">
-        <v>0.004314766953834163</v>
-      </c>
-      <c r="Q17">
-        <v>0.03958789780855555</v>
-      </c>
-      <c r="R17">
-        <v>0.356291080277</v>
-      </c>
-      <c r="S17">
-        <v>3.373340737213156E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.373340737213156E-05</v>
+        <v>0.0001035726102391031</v>
       </c>
     </row>
   </sheetData>
